--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt2b-Fzd7.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H2">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I2">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J2">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N2">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P2">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q2">
-        <v>4.806282008977777</v>
+        <v>1.664132527026889</v>
       </c>
       <c r="R2">
-        <v>43.25653808079999</v>
+        <v>14.977192743242</v>
       </c>
       <c r="S2">
-        <v>0.0256397450082125</v>
+        <v>0.01027201160857882</v>
       </c>
       <c r="T2">
-        <v>0.0256397450082125</v>
+        <v>0.01027201160857883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H3">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I3">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J3">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>23.347821</v>
       </c>
       <c r="O3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P3">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q3">
-        <v>14.95657781376733</v>
+        <v>16.03303688357933</v>
       </c>
       <c r="R3">
-        <v>134.609200323906</v>
+        <v>144.297331952214</v>
       </c>
       <c r="S3">
-        <v>0.07978783613282892</v>
+        <v>0.09896539987901955</v>
       </c>
       <c r="T3">
-        <v>0.07978783613282893</v>
+        <v>0.09896539987901956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H4">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I4">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J4">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N4">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P4">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q4">
-        <v>8.607262629513777</v>
+        <v>10.32070730232178</v>
       </c>
       <c r="R4">
-        <v>77.46536366562398</v>
+        <v>92.88636572089599</v>
       </c>
       <c r="S4">
-        <v>0.04591657722689201</v>
+        <v>0.06370551833849263</v>
       </c>
       <c r="T4">
-        <v>0.04591657722689202</v>
+        <v>0.06370551833849263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.921795333333333</v>
+        <v>2.060111333333333</v>
       </c>
       <c r="H5">
-        <v>5.765385999999999</v>
+        <v>6.180334</v>
       </c>
       <c r="I5">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="J5">
-        <v>0.1981502018195672</v>
+        <v>0.2095457297481522</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N5">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P5">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q5">
-        <v>8.773996952035333</v>
+        <v>5.929891072133111</v>
       </c>
       <c r="R5">
-        <v>78.96597256831799</v>
+        <v>53.369019649198</v>
       </c>
       <c r="S5">
-        <v>0.04680604345163379</v>
+        <v>0.03660279992206115</v>
       </c>
       <c r="T5">
-        <v>0.04680604345163379</v>
+        <v>0.03660279992206116</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.73281</v>
       </c>
       <c r="I6">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J6">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N6">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P6">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q6">
-        <v>10.61463631866667</v>
+        <v>3.428468960003334</v>
       </c>
       <c r="R6">
-        <v>95.53172686800001</v>
+        <v>30.85622064003</v>
       </c>
       <c r="S6">
-        <v>0.05662517681175523</v>
+        <v>0.02116254107461321</v>
       </c>
       <c r="T6">
-        <v>0.05662517681175522</v>
+        <v>0.02116254107461321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.73281</v>
       </c>
       <c r="I7">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J7">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>23.347821</v>
       </c>
       <c r="O7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P7">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q7">
         <v>33.03148541189</v>
@@ -883,10 +883,10 @@
         <v>297.28336870701</v>
       </c>
       <c r="S7">
-        <v>0.1762108136021501</v>
+        <v>0.2038898922345587</v>
       </c>
       <c r="T7">
-        <v>0.1762108136021501</v>
+        <v>0.2038898922345587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.73281</v>
       </c>
       <c r="I8">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J8">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N8">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P8">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q8">
-        <v>19.00907236422666</v>
+        <v>21.26286461962667</v>
       </c>
       <c r="R8">
-        <v>171.08165127804</v>
+        <v>191.36578157664</v>
       </c>
       <c r="S8">
-        <v>0.1014064025687687</v>
+        <v>0.1312469942491041</v>
       </c>
       <c r="T8">
-        <v>0.1014064025687687</v>
+        <v>0.1312469942491041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.73281</v>
       </c>
       <c r="I9">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="J9">
-        <v>0.437613174769253</v>
+        <v>0.431709024657012</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N9">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P9">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q9">
-        <v>19.37730381467</v>
+        <v>12.21684399939667</v>
       </c>
       <c r="R9">
-        <v>174.39573433203</v>
+        <v>109.95159599457</v>
       </c>
       <c r="S9">
-        <v>0.103370781786579</v>
+        <v>0.07540959709873601</v>
       </c>
       <c r="T9">
-        <v>0.103370781786579</v>
+        <v>0.07540959709873601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.464018</v>
+        <v>2.602283</v>
       </c>
       <c r="H10">
-        <v>7.392054</v>
+        <v>7.806849</v>
       </c>
       <c r="I10">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J10">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N10">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O10">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P10">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q10">
-        <v>6.162344750133332</v>
+        <v>2.102092112576333</v>
       </c>
       <c r="R10">
-        <v>55.46110275119999</v>
+        <v>18.918829013187</v>
       </c>
       <c r="S10">
-        <v>0.03287384047606479</v>
+        <v>0.01297535757038729</v>
       </c>
       <c r="T10">
-        <v>0.03287384047606478</v>
+        <v>0.0129753575703873</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.464018</v>
+        <v>2.602283</v>
       </c>
       <c r="H11">
-        <v>7.392054</v>
+        <v>7.806849</v>
       </c>
       <c r="I11">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J11">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>23.347821</v>
       </c>
       <c r="O11">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P11">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q11">
-        <v>19.176483734926</v>
+        <v>20.252545891781</v>
       </c>
       <c r="R11">
-        <v>172.588353614334</v>
+        <v>182.272913026029</v>
       </c>
       <c r="S11">
-        <v>0.1022994805962728</v>
+        <v>0.1250107086575133</v>
       </c>
       <c r="T11">
-        <v>0.1022994805962728</v>
+        <v>0.1250107086575133</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.464018</v>
+        <v>2.602283</v>
       </c>
       <c r="H12">
-        <v>7.392054</v>
+        <v>7.806849</v>
       </c>
       <c r="I12">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J12">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N12">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O12">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P12">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q12">
-        <v>11.03574854303733</v>
+        <v>13.03686879745066</v>
       </c>
       <c r="R12">
-        <v>99.32173688733599</v>
+        <v>117.331819177056</v>
       </c>
       <c r="S12">
-        <v>0.05887165548956411</v>
+        <v>0.08047127584615052</v>
       </c>
       <c r="T12">
-        <v>0.05887165548956411</v>
+        <v>0.08047127584615052</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.464018</v>
+        <v>2.602283</v>
       </c>
       <c r="H13">
-        <v>7.392054</v>
+        <v>7.806849</v>
       </c>
       <c r="I13">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="J13">
-        <v>0.2540570556700175</v>
+        <v>0.2646931170287289</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N13">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O13">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P13">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q13">
-        <v>11.249525923378</v>
+        <v>7.490495527683666</v>
       </c>
       <c r="R13">
-        <v>101.245733310402</v>
+        <v>67.414459749153</v>
       </c>
       <c r="S13">
-        <v>0.06001207910811581</v>
+        <v>0.04623577495467773</v>
       </c>
       <c r="T13">
-        <v>0.0600120791081158</v>
+        <v>0.04623577495467773</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.068596333333333</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H14">
-        <v>3.205789</v>
+        <v>2.77397</v>
       </c>
       <c r="I14">
-        <v>0.1101795677411623</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J14">
-        <v>0.1101795677411623</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.500933333333333</v>
+        <v>0.8077876666666667</v>
       </c>
       <c r="N14">
-        <v>7.5028</v>
+        <v>2.423363</v>
       </c>
       <c r="O14">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="P14">
-        <v>0.129395502869887</v>
+        <v>0.04902038147436601</v>
       </c>
       <c r="Q14">
-        <v>2.672488189911111</v>
+        <v>0.7469262512344443</v>
       </c>
       <c r="R14">
-        <v>24.0523937092</v>
+        <v>6.72233626111</v>
       </c>
       <c r="S14">
-        <v>0.01425674057385447</v>
+        <v>0.004610471220786676</v>
       </c>
       <c r="T14">
-        <v>0.01425674057385447</v>
+        <v>0.004610471220786677</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.068596333333333</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H15">
-        <v>3.205789</v>
+        <v>2.77397</v>
       </c>
       <c r="I15">
-        <v>0.1101795677411623</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J15">
-        <v>0.1101795677411623</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>23.347821</v>
       </c>
       <c r="O15">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="P15">
-        <v>0.4026634108880828</v>
+        <v>0.4722854529078861</v>
       </c>
       <c r="Q15">
-        <v>8.316465303974335</v>
+        <v>7.196239446596666</v>
       </c>
       <c r="R15">
-        <v>74.848187735769</v>
+        <v>64.76615501936999</v>
       </c>
       <c r="S15">
-        <v>0.04436528055683098</v>
+        <v>0.04441945213679452</v>
       </c>
       <c r="T15">
-        <v>0.04436528055683098</v>
+        <v>0.04441945213679453</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.068596333333333</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H16">
-        <v>3.205789</v>
+        <v>2.77397</v>
       </c>
       <c r="I16">
-        <v>0.1101795677411623</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J16">
-        <v>0.1101795677411623</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.478761333333333</v>
+        <v>5.009781333333333</v>
       </c>
       <c r="N16">
-        <v>13.436284</v>
+        <v>15.029344</v>
       </c>
       <c r="O16">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="P16">
-        <v>0.2317261188999595</v>
+        <v>0.3040172587389813</v>
       </c>
       <c r="Q16">
-        <v>4.785987938675111</v>
+        <v>4.632327708408888</v>
       </c>
       <c r="R16">
-        <v>43.073891448076</v>
+        <v>41.69094937567999</v>
       </c>
       <c r="S16">
-        <v>0.02553148361473472</v>
+        <v>0.02859347030523405</v>
       </c>
       <c r="T16">
-        <v>0.02553148361473472</v>
+        <v>0.02859347030523405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.068596333333333</v>
+        <v>0.9246566666666666</v>
       </c>
       <c r="H17">
-        <v>3.205789</v>
+        <v>2.77397</v>
       </c>
       <c r="I17">
-        <v>0.1101795677411623</v>
+        <v>0.09405212856610688</v>
       </c>
       <c r="J17">
-        <v>0.1101795677411623</v>
+        <v>0.0940521285661069</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.565521</v>
+        <v>2.878432333333333</v>
       </c>
       <c r="N17">
-        <v>13.696563</v>
+        <v>8.635297</v>
       </c>
       <c r="O17">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="P17">
-        <v>0.2362149673420707</v>
+        <v>0.1746769068787666</v>
       </c>
       <c r="Q17">
-        <v>4.878699000356335</v>
+        <v>2.661561646565555</v>
       </c>
       <c r="R17">
-        <v>43.908291003207</v>
+        <v>23.95405481909</v>
       </c>
       <c r="S17">
-        <v>0.02602606299574212</v>
+        <v>0.01642873490329163</v>
       </c>
       <c r="T17">
-        <v>0.02602606299574211</v>
+        <v>0.01642873490329163</v>
       </c>
     </row>
   </sheetData>
